--- a/biology/Botanique/Shunkokan/Shunkokan.xlsx
+++ b/biology/Botanique/Shunkokan/Shunkokan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shunkokan (Citrus shunkokan) est un agrume du sud du Japon, hybride d'un pamplemoussier indéterminé (C. maxima) et de Citrus yatsushiro. Yatsushiro (C. yatsushiro hort. ex Yu. Tanaka) est une variété ancienne de mandarine qui n'est plus cultivée, résultant de rétrocroisements entre kunenbo (C. depressa) et la mandarine Kishu dans la région de Kagoshima.  
 Shunkokan est produit en petites quantités dans les préfectures de Mie et de Wakayama. Le fruit est une curiosité, son jus est réputé agréable.  
@@ -512,10 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En japonais シュンコウカン (shunkoukan), souvent écrit shunkokan parfois shunkoukan[1], kanji ou chinois 春光柑 (chūnguāng gān) mandarine lumière du printemps, en coréen 춘광귤 (chungwang-gyul) mandarine de printemps[2] . D'après la rumeur, ce serait Haruo Sato (1892-1964) de Shingū qui lui aurait donné son nom[3].
-Tanaka en a fait une espèce: C. shunkokan hort. ex Tanaka [4]. On le rencontre classé comme bigaradier Citrus ×aurantium L. sans que rien ne le justifie[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En japonais シュンコウカン (shunkoukan), souvent écrit shunkokan parfois shunkoukan, kanji ou chinois 春光柑 (chūnguāng gān) mandarine lumière du printemps, en coréen 춘광귤 (chungwang-gyul) mandarine de printemps . D'après la rumeur, ce serait Haruo Sato (1892-1964) de Shingū qui lui aurait donné son nom.
+Tanaka en a fait une espèce: C. shunkokan hort. ex Tanaka . On le rencontre classé comme bigaradier Citrus ×aurantium L. sans que rien ne le justifie. 
 Shunkokan ne figure pas comme marque ou dénomination protégées du NARO (Ministère de l'Agriculture du Japon). 
 </t>
         </is>
@@ -547,22 +561,132 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phylogénie
-Tokurou Shimizu et al. (2016) donnent pour parent femelle un pamplemoussier indéterminé et pour fécondateur Kunenbo-A[6]. En 2022, il fait de Kunenbo-A un parent indirect via une seconde fécondation par la mandarine Kishu qui donne yatsushiro (C. yatsushiro hort. ex Yu. Tanaka)[7]. Les satsuma Yatsushiro et Kishu sont comme frères et sœurs[8].
-Descendance
-Kaikoukan est un agrume important par sa descendance :
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tokurou Shimizu et al. (2016) donnent pour parent femelle un pamplemoussier indéterminé et pour fécondateur Kunenbo-A. En 2022, il fait de Kunenbo-A un parent indirect via une seconde fécondation par la mandarine Kishu qui donne yatsushiro (C. yatsushiro hort. ex Yu. Tanaka). Les satsuma Yatsushiro et Kishu sont comme frères et sœurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Shunkokan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shunkokan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Descendance</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kaikoukan est un agrume important par sa descendance :
 Andoukan = Kaikoukan x Kishu,
 Iyo (C. iyo) = Kaikoukan x Dancy. Le iyokan est un agrume qui a connu un grand succès au Japon, il est réputé pour son jus,
 Sanbokan (C. sulcata) = Kaikoukan x Kishu,
 Yamabuki (Citrus yamabuki hort. ex Yu.Tanaka) = Kaikoukan x (inconnu),
-les porte-greffes US-2234 (Shunkokan × mandarine Cleopatra), US-2250 et US-2272 (porte-greffe qui donne des jus colorés aux fruits)[9].
-Yoshinori Hasegawa (2013) décrit haruka comme hybride naturel de hyuganatsu et shunkokan[10]. Les analyses postérieures montrent que le parent pollinisateur est natsudaidai et non shunkokan[6].
-Phénotype
-Le fruit est à maturité en février-mars, il est jaune, juteux, sucré (11 °brix) et peu acide[11], de la taille d'une belle satsuma: hauteur 6,7 cm, largeur 8,3 cm. L'arbre est un gros buisson hirsute[12]. 
-Le zeste de shunkokan et riche en narirutine, glycoside de flavone qui montre de puissantes capacités à supprimer l'adipogenèse et l'accumulation de triglycérides intracellulaires au même titre que ceux de Sambokan, des mandarines var Knep et Koji[13].
-Utilisation
-Il est consommé en fruit de table[14] et en jus[3]  produit à Kozagawa.
-Un effet radioprotecteur a été observé dans le groupe de souris irradiées bénéficiant d'un extrait de shunkokan (2011), les auteurs l'attribuent à la capacité  antioxydante du shunkokan[15]. 
+les porte-greffes US-2234 (Shunkokan × mandarine Cleopatra), US-2250 et US-2272 (porte-greffe qui donne des jus colorés aux fruits).
+Yoshinori Hasegawa (2013) décrit haruka comme hybride naturel de hyuganatsu et shunkokan. Les analyses postérieures montrent que le parent pollinisateur est natsudaidai et non shunkokan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Shunkokan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shunkokan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phénotype</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est à maturité en février-mars, il est jaune, juteux, sucré (11 °brix) et peu acide, de la taille d'une belle satsuma: hauteur 6,7 cm, largeur 8,3 cm. L'arbre est un gros buisson hirsute. 
+Le zeste de shunkokan et riche en narirutine, glycoside de flavone qui montre de puissantes capacités à supprimer l'adipogenèse et l'accumulation de triglycérides intracellulaires au même titre que ceux de Sambokan, des mandarines var Knep et Koji.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Shunkokan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shunkokan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est consommé en fruit de table et en jus  produit à Kozagawa.
+Un effet radioprotecteur a été observé dans le groupe de souris irradiées bénéficiant d'un extrait de shunkokan (2011), les auteurs l'attribuent à la capacité  antioxydante du shunkokan. 
 </t>
         </is>
       </c>
